--- a/datadrivenfile.xlsx
+++ b/datadrivenfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Documents\java projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Documents\gitdemo\API-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0576D8E7-EF4F-4C00-8912-CC77972DA5B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B50AA41-7F40-4B99-AB68-9DB61187E11C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{CB8B2B02-C765-407F-8E8A-0FAC817B2DEB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>EMPID</t>
   </si>
@@ -48,16 +48,19 @@
     <t>SALARY</t>
   </si>
   <si>
-    <t>yamini</t>
-  </si>
-  <si>
-    <t>Machha</t>
-  </si>
-  <si>
     <t>Priyani</t>
   </si>
   <si>
-    <t>Alahakoon</t>
+    <t>gitdemo</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Mhha</t>
+  </si>
+  <si>
+    <t>yaini</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC12A4-0465-448F-AA4A-40DF7798A646}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +439,10 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>7000</v>
@@ -450,13 +453,21 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3">
         <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
